--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.100000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.100000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>8.831192002841253e-193</v>
+        <v>2.09401774051798e-206</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>1.5995129644062e-193</v>
+        <v>3.292912442370408e-206</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>3.353338162376072e-194</v>
+        <v>3.952786002986822e-206</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>1.765192710010779e-194</v>
+        <v>2.608317377849098e-206</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>9.054433043502735e-195</v>
+        <v>2.127568545936214e-206</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>7.181027589870508e-195</v>
+        <v>2.020865023938862e-206</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>4.560063307848175e-195</v>
+        <v>1.031309430657783e-206</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>7.587179395218438e-195</v>
+        <v>7.150853066575642e-207</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>7.384918724809767e-195</v>
+        <v>4.844349775022516e-207</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>3.066559162065893e-195</v>
+        <v>3.403981135908023e-207</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>1.116307066930103e-195</v>
+        <v>1.507933287041704e-207</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>2.580845053551485e-196</v>
+        <v>7.476775924188993e-208</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>1.611419026233792e-196</v>
+        <v>2.319776738318028e-219</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>1.695257205969841e-196</v>
+        <v>1.806192785624209e-220</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>6.050367993618584e-197</v>
+        <v>1.634200121528403e-220</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>3.325929793765284e-197</v>
+        <v>1.1183812395917e-220</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>1.174028263231544e-197</v>
+        <v>1.020802053435456e-220</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>2.2331017123849e-198</v>
+        <v>1.177944710793567e-220</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>1.40952974458349e-198</v>
+        <v>8.632956743565265e-221</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.067530186087498e-198</v>
+        <v>8.887024246621871e-221</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>7.788879290232379e-199</v>
+        <v>1.531651789203655e-220</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>5.951999461187691e-199</v>
+        <v>1.528085831642261e-220</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>3.805945280023298e-199</v>
+        <v>1.620444150280678e-220</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>4.64266912067905e-199</v>
+        <v>1.402723913796796e-220</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>4.231394269591122e-199</v>
+        <v>9.643735454051704e-221</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>3.982602229294578e-199</v>
+        <v>9.31054229266925e-221</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>3.594892542088892e-199</v>
+        <v>6.719840489241752e-221</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>1.322215633094498e-199</v>
+        <v>6.488239772943651e-221</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>2.69972990018093e-200</v>
+        <v>5.541206387314341e-221</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>5.208984667754669e-201</v>
+        <v>4.426764900125516e-221</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>9.530328336989057e-202</v>
+        <v>3.321599643238222e-221</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>3.762048163108913e-202</v>
+        <v>2.426018378439001e-221</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>9.593695624916189e-203</v>
+        <v>2.308975697977698e-221</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>3.255013650673831e-203</v>
+        <v>1.608530315615788e-221</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.245882226879785e-203</v>
+        <v>1.265469567280122e-221</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>8.809782152368891e-204</v>
+        <v>6.379586960952918e-222</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>7.0111104019306e-204</v>
+        <v>5.236184177790887e-222</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>6.407233801880176e-205</v>
+        <v>3.439365466644135e-222</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>1.059891869352682e-205</v>
+        <v>3.731146026821549e-222</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>3.468269386418636e-206</v>
+        <v>4.968865268297157e-222</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>4.327424055194159e-207</v>
+        <v>4.011193141856617e-222</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>7.645355628248763e-208</v>
+        <v>3.005132197033565e-222</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>1.899701382956094e-208</v>
+        <v>1.541767208577582e-222</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>2.634132244359631e-208</v>
+        <v>9.295201172792791e-223</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>2.051488952630683e-208</v>
+        <v>4.99909721430482e-223</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>7.915572234043727e-209</v>
+        <v>3.289302521713725e-224</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>5.009071157770735e-209</v>
+        <v>4.267828872669387e-225</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>2.677272997234166e-209</v>
+        <v>6.433049834792145e-226</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>8.756602366246188e-210</v>
+        <v>2.85855073134276e-226</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>2.490313620771206e-210</v>
+        <v>1.243297917688524e-226</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>8.34383325221721e-211</v>
+        <v>8.372155460315706e-227</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>6.353581304491436e-211</v>
+        <v>4.510970798086623e-227</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>4.709659314680557e-211</v>
+        <v>6.902127876696203e-227</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>2.846817303082036e-211</v>
+        <v>6.16985979332728e-227</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>1.082562660093795e-211</v>
+        <v>2.176014631983224e-227</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>1.715457819919e-212</v>
+        <v>6.934133183575906e-228</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>4.579952592591992e-213</v>
+        <v>1.400333692051975e-228</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>7.219622378267775e-214</v>
+        <v>8.449503816814478e-229</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>4.087770735046269e-214</v>
+        <v>8.616060347130254e-229</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>1.95832134404558e-214</v>
+        <v>2.967285848940398e-229</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>9.833863836023462e-215</v>
+        <v>1.557853645203802e-229</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>6.626836170861036e-215</v>
+        <v>5.062909215985444e-230</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>4.799128527369798e-215</v>
+        <v>8.125088316623357e-231</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>3.060874821159509e-215</v>
+        <v>4.963586491514023e-231</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>1.418065459468146e-215</v>
+        <v>3.582618428514985e-231</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>1.010860372413807e-215</v>
+        <v>2.406197675989929e-231</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>5.958285278557745e-216</v>
+        <v>1.68755466737614e-231</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>3.667654659432599e-216</v>
+        <v>1.006939485845433e-231</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>2.736686672946183e-216</v>
+        <v>1.118375728426637e-231</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>1.974493953896003e-216</v>
+        <v>9.353411881983712e-232</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>1.595857925522293e-216</v>
+        <v>7.511945182672325e-232</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>1.152396117507305e-216</v>
+        <v>5.707689990527889e-232</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>9.361459914279684e-217</v>
+        <v>1.779773945944394e-232</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>2.833056610413592e-217</v>
+        <v>3.083410369056125e-233</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>1.54403772905919e-217</v>
+        <v>5.035370857428603e-234</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>8.225377518693314e-218</v>
+        <v>7.77937317827894e-235</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>2.379197122766648e-218</v>
+        <v>2.613405790520811e-235</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>1.278556149400395e-218</v>
+        <v>5.622978607522262e-236</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>6.793709052039475e-219</v>
+        <v>1.623869548413328e-236</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>4.852003513533034e-219</v>
+        <v>5.698775098918778e-237</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>4.806688317717012e-219</v>
+        <v>3.721749002042363e-237</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>3.916516515916437e-219</v>
+        <v>2.508975666753139e-237</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>2.320231780468641e-219</v>
+        <v>1.640901543139951e-238</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>1.730434828052258e-219</v>
+        <v>2.298185221767284e-239</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>1.397029019391628e-219</v>
+        <v>6.393661087581988e-240</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>1.196863173093857e-219</v>
+        <v>5.715747802725394e-241</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>9.575868255563199e-220</v>
+        <v>7.248379173040399e-242</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>7.620137978047491e-220</v>
+        <v>1.292361511146242e-242</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>5.556472156622943e-220</v>
+        <v>1.644382387099929e-242</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>4.123641830755685e-220</v>
+        <v>1.204391509946422e-242</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>2.343940460740992e-220</v>
+        <v>3.861430017984865e-243</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>1.240637259445746e-220</v>
+        <v>2.249733440537322e-243</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>2.869051430363463e-221</v>
+        <v>1.10376655426499e-243</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>1.46933461479389e-221</v>
+        <v>3.061120087439215e-244</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>7.461157129978482e-222</v>
+        <v>7.398913665614958e-245</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>2.199782749227454e-222</v>
+        <v>2.096111928307495e-245</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>1.164032155047852e-222</v>
+        <v>1.540692795876922e-245</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>7.910128011172396e-223</v>
+        <v>1.084607185319638e-245</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>5.972314022690309e-223</v>
+        <v>6.05508111389148e-246</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>4.602285278366285e-223</v>
+        <v>1.955988839881147e-246</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>4.103824609840919e-223</v>
+        <v>2.21891070785989e-247</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>3.94779727988382e-223</v>
+        <v>4.523048630374309e-248</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>3.825819377522378e-223</v>
+        <v>4.81941366824673e-249</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>3.038983356763605e-223</v>
+        <v>2.310733392662308e-249</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>2.451807593678752e-223</v>
+        <v>9.343065854570631e-250</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>2.005387327727499e-223</v>
+        <v>3.985498077140099e-250</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>1.493651637409895e-223</v>
+        <v>2.423549607374486e-250</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>1.340892966052047e-223</v>
+        <v>1.641310941044051e-250</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>1.257286561292332e-223</v>
+        <v>9.362016799011044e-251</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>9.225423601389916e-224</v>
+        <v>3.684453559119767e-251</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>4.97849072105183e-224</v>
+        <v>2.477413737444048e-251</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>2.642275484472872e-224</v>
+        <v>1.311154171520835e-251</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>1.568207956177216e-224</v>
+        <v>7.414672537259207e-252</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>1.328517472117053e-224</v>
+        <v>5.274384703953512e-252</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>1.121546284080792e-224</v>
+        <v>3.613399554271676e-252</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>1.176525731039835e-224</v>
+        <v>2.817180808044726e-252</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>1.098694511972564e-224</v>
+        <v>1.943257429840559e-252</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>8.599919322852523e-225</v>
+        <v>1.531379776249024e-252</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>6.36883822400939e-225</v>
+        <v>3.920538582948241e-253</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>5.309676502318892e-225</v>
+        <v>1.954868966312655e-253</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>4.856587366033653e-225</v>
+        <v>9.648556416950036e-254</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>2.574803454840687e-225</v>
+        <v>2.365270829675703e-254</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>1.875132519811761e-225</v>
+        <v>1.163085367228657e-254</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>4.082707212938439e-226</v>
+        <v>5.70221621134862e-255</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>3.735151824179094e-227</v>
+        <v>3.881118345209379e-255</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>4.591532092635573e-228</v>
+        <v>3.837221539898652e-255</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>7.300303652638741e-229</v>
+        <v>3.026528093740314e-255</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>4.007174745946717e-229</v>
+        <v>1.650760730550464e-255</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>3.144141677546246e-229</v>
+        <v>1.17076601778136e-255</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>2.369407483822893e-229</v>
+        <v>9.102483146422756e-256</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>1.192863735342402e-229</v>
+        <v>7.459051271989956e-256</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>7.492722657994274e-230</v>
+        <v>5.66670628684218e-256</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>4.419756616012339e-230</v>
+        <v>4.303908885445281e-256</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>2.436340192197307e-230</v>
+        <v>2.972567631034751e-256</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>2.398374326365378e-230</v>
+        <v>2.105529018044543e-256</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>1.336644810890743e-230</v>
+        <v>1.098230335680622e-256</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>6.839742768698982e-231</v>
+        <v>5.361576235152754e-257</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>3.737220254698599e-231</v>
+        <v>1.049603915436635e-257</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>2.79072516882721e-231</v>
+        <v>4.944876710237214e-258</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>1.730276049148496e-231</v>
+        <v>2.327576253821002e-258</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>1.397536160226384e-231</v>
+        <v>5.841109550832592e-259</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>1.007615686475528e-231</v>
+        <v>2.807234041525436e-259</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>6.342504334911982e-232</v>
+        <v>1.793140006852288e-259</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>4.617153474069659e-232</v>
+        <v>1.287251343405967e-259</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>3.310170816459477e-232</v>
+        <v>9.575089926067482e-260</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>2.222290979328176e-232</v>
+        <v>8.383592646016505e-260</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>1.591165355644453e-232</v>
+        <v>8.006174289389213e-260</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>1.074273254175288e-232</v>
+        <v>7.722832858683999e-260</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>1.021328503439532e-232</v>
+        <v>5.917534692814303e-260</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>6.564042224129487e-233</v>
+        <v>4.619857372222778e-260</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>3.5020165307001e-233</v>
+        <v>3.652899347152807e-260</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>3.376223325399541e-233</v>
+        <v>2.637176350369153e-260</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>2.014662925286069e-233</v>
+        <v>2.318477363338926e-260</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>1.695161526766245e-233</v>
+        <v>2.148453160854097e-260</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>1.600474805858922e-233</v>
+        <v>1.497640590781933e-260</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>1.446404695130292e-233</v>
+        <v>7.443396310164956e-261</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>1.084795624252381e-233</v>
+        <v>3.637739694339919e-261</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>7.504616089585614e-234</v>
+        <v>1.995367293880796e-261</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>5.622624188749109e-234</v>
+        <v>1.651019508557395e-261</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>4.302934667125265e-234</v>
+        <v>1.307104072166485e-261</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>3.362643331818379e-234</v>
+        <v>1.260531656625245e-261</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>2.54704715309514e-234</v>
+        <v>1.12425612972514e-261</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>1.934179187257312e-234</v>
+        <v>8.360116996570118e-262</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>1.671090373879792e-234</v>
+        <v>5.866170864826673e-262</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>5.16307845381474e-235</v>
+        <v>4.729377219178963e-262</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>1.2657507892218e-235</v>
+        <v>4.256729849378816e-262</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>5.929822448611932e-236</v>
+        <v>2.040859803695256e-262</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>8.028057547292721e-236</v>
+        <v>1.429908395717157e-262</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>4.742358234789054e-236</v>
+        <v>2.607662037112135e-263</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>3.131920349200656e-236</v>
+        <v>1.717830502316118e-264</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>1.821949923322567e-236</v>
+        <v>1.510482736447198e-265</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>1.367434411516217e-236</v>
+        <v>1.723274775446141e-266</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>6.887623719763604e-237</v>
+        <v>8.083500143531912e-267</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>4.480123933898458e-237</v>
+        <v>5.978683300511797e-267</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>1.808181590433242e-237</v>
+        <v>4.006711789217887e-267</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>5.307259859957657e-238</v>
+        <v>1.714100529181136e-267</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>3.233900912936291e-238</v>
+        <v>9.893005586608705e-268</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5.376296985968159e-268</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.728543217253879e-268</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.683350722830071e-268</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.381191426800438e-268</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>6.489817445777529e-269</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>3.252308648744933e-269</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.319124365968433e-269</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.329328094026476e-269</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.037779352684097e-269</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>7.159219348802781e-270</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>4.089490888881705e-270</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.755936320667157e-270</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.829379217172285e-270</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.124936554261594e-270</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>7.429220111664963e-271</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4.601136267317782e-271</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4.372195448430661e-271</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2.605196747409861e-271</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.273518528382289e-271</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.223908269026438e-271</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>6.833121107879961e-272</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5.624893077011953e-272</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>5.282575511209987e-272</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4.506896842416286e-272</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>3.294310405291149e-272</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.122042112240602e-272</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.53976565067643e-272</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.13876322953665e-272</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>8.612936625376046e-273</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>6.291056780712417e-273</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>4.622117103949601e-273</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3.888127885854134e-273</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.102889773796236e-273</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2.476540090613681e-274</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.106986677056378e-274</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1.4882782875402e-274</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>8.716061144229996e-275</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>5.559061047730755e-275</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>3.031230669808231e-275</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2.156660503414903e-275</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>9.151537011829145e-276</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>4.986703490624806e-276</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.696974317965247e-276</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>4.146328655590274e-277</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2.370130485809196e-277</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.100000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.100000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>2.09401774051798e-206</v>
+        <v>8.831192002841253e-193</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>3.292912442370408e-206</v>
+        <v>1.5995129644062e-193</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>3.952786002986822e-206</v>
+        <v>3.353338162376072e-194</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>2.608317377849098e-206</v>
+        <v>1.765192710010779e-194</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>2.127568545936214e-206</v>
+        <v>9.054433043502735e-195</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>2.020865023938862e-206</v>
+        <v>7.181027589870508e-195</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>1.031309430657783e-206</v>
+        <v>4.560063307848175e-195</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>7.150853066575642e-207</v>
+        <v>7.587179395218438e-195</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>4.844349775022516e-207</v>
+        <v>7.384918724809767e-195</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>3.403981135908023e-207</v>
+        <v>3.066559162065893e-195</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>1.507933287041704e-207</v>
+        <v>1.116307066930103e-195</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>7.476775924188993e-208</v>
+        <v>2.580845053551485e-196</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>2.319776738318028e-219</v>
+        <v>1.611419026233792e-196</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>1.806192785624209e-220</v>
+        <v>1.695257205969841e-196</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>1.634200121528403e-220</v>
+        <v>6.050367993618584e-197</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>1.1183812395917e-220</v>
+        <v>3.325929793765284e-197</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>1.020802053435456e-220</v>
+        <v>1.174028263231544e-197</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>1.177944710793567e-220</v>
+        <v>2.2331017123849e-198</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>8.632956743565265e-221</v>
+        <v>1.40952974458349e-198</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>8.887024246621871e-221</v>
+        <v>1.067530186087498e-198</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>1.531651789203655e-220</v>
+        <v>7.788879290232379e-199</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>1.528085831642261e-220</v>
+        <v>5.951999461187691e-199</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>1.620444150280678e-220</v>
+        <v>3.805945280023298e-199</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>1.402723913796796e-220</v>
+        <v>4.64266912067905e-199</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>9.643735454051704e-221</v>
+        <v>4.231394269591122e-199</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>9.31054229266925e-221</v>
+        <v>3.982602229294578e-199</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>6.719840489241752e-221</v>
+        <v>3.594892542088892e-199</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>6.488239772943651e-221</v>
+        <v>1.322215633094498e-199</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>5.541206387314341e-221</v>
+        <v>2.69972990018093e-200</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>4.426764900125516e-221</v>
+        <v>5.208984667754669e-201</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>3.321599643238222e-221</v>
+        <v>9.530328336989057e-202</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>2.426018378439001e-221</v>
+        <v>3.762048163108913e-202</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>2.308975697977698e-221</v>
+        <v>9.593695624916189e-203</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>1.608530315615788e-221</v>
+        <v>3.255013650673831e-203</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>1.265469567280122e-221</v>
+        <v>1.245882226879785e-203</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>6.379586960952918e-222</v>
+        <v>8.809782152368891e-204</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>5.236184177790887e-222</v>
+        <v>7.0111104019306e-204</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>3.439365466644135e-222</v>
+        <v>6.407233801880176e-205</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>3.731146026821549e-222</v>
+        <v>1.059891869352682e-205</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>4.968865268297157e-222</v>
+        <v>3.468269386418636e-206</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>4.011193141856617e-222</v>
+        <v>4.327424055194159e-207</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>3.005132197033565e-222</v>
+        <v>7.645355628248763e-208</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>1.541767208577582e-222</v>
+        <v>1.899701382956094e-208</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>9.295201172792791e-223</v>
+        <v>2.634132244359631e-208</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>4.99909721430482e-223</v>
+        <v>2.051488952630683e-208</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>3.289302521713725e-224</v>
+        <v>7.915572234043727e-209</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>4.267828872669387e-225</v>
+        <v>5.009071157770735e-209</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>6.433049834792145e-226</v>
+        <v>2.677272997234166e-209</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>2.85855073134276e-226</v>
+        <v>8.756602366246188e-210</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>1.243297917688524e-226</v>
+        <v>2.490313620771206e-210</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>8.372155460315706e-227</v>
+        <v>8.34383325221721e-211</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>4.510970798086623e-227</v>
+        <v>6.353581304491436e-211</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>6.902127876696203e-227</v>
+        <v>4.709659314680557e-211</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>6.16985979332728e-227</v>
+        <v>2.846817303082036e-211</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>2.176014631983224e-227</v>
+        <v>1.082562660093795e-211</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>6.934133183575906e-228</v>
+        <v>1.715457819919e-212</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>1.400333692051975e-228</v>
+        <v>4.579952592591992e-213</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>8.449503816814478e-229</v>
+        <v>7.219622378267775e-214</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>8.616060347130254e-229</v>
+        <v>4.087770735046269e-214</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>2.967285848940398e-229</v>
+        <v>1.95832134404558e-214</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>1.557853645203802e-229</v>
+        <v>9.833863836023462e-215</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>5.062909215985444e-230</v>
+        <v>6.626836170861036e-215</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>8.125088316623357e-231</v>
+        <v>4.799128527369798e-215</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>4.963586491514023e-231</v>
+        <v>3.060874821159509e-215</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>3.582618428514985e-231</v>
+        <v>1.418065459468146e-215</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>2.406197675989929e-231</v>
+        <v>1.010860372413807e-215</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>1.68755466737614e-231</v>
+        <v>5.958285278557745e-216</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>1.006939485845433e-231</v>
+        <v>3.667654659432599e-216</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>1.118375728426637e-231</v>
+        <v>2.736686672946183e-216</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>9.353411881983712e-232</v>
+        <v>1.974493953896003e-216</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>7.511945182672325e-232</v>
+        <v>1.595857925522293e-216</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>5.707689990527889e-232</v>
+        <v>1.152396117507305e-216</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>1.779773945944394e-232</v>
+        <v>9.361459914279684e-217</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>3.083410369056125e-233</v>
+        <v>2.833056610413592e-217</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>5.035370857428603e-234</v>
+        <v>1.54403772905919e-217</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>7.77937317827894e-235</v>
+        <v>8.225377518693314e-218</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>2.613405790520811e-235</v>
+        <v>2.379197122766648e-218</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>5.622978607522262e-236</v>
+        <v>1.278556149400395e-218</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>1.623869548413328e-236</v>
+        <v>6.793709052039475e-219</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>5.698775098918778e-237</v>
+        <v>4.852003513533034e-219</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>3.721749002042363e-237</v>
+        <v>4.806688317717012e-219</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>2.508975666753139e-237</v>
+        <v>3.916516515916437e-219</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>1.640901543139951e-238</v>
+        <v>2.320231780468641e-219</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>2.298185221767284e-239</v>
+        <v>1.730434828052258e-219</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>6.393661087581988e-240</v>
+        <v>1.397029019391628e-219</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>5.715747802725394e-241</v>
+        <v>1.196863173093857e-219</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>7.248379173040399e-242</v>
+        <v>9.575868255563199e-220</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>1.292361511146242e-242</v>
+        <v>7.620137978047491e-220</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>1.644382387099929e-242</v>
+        <v>5.556472156622943e-220</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>1.204391509946422e-242</v>
+        <v>4.123641830755685e-220</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>3.861430017984865e-243</v>
+        <v>2.343940460740992e-220</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>2.249733440537322e-243</v>
+        <v>1.240637259445746e-220</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>1.10376655426499e-243</v>
+        <v>2.869051430363463e-221</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>3.061120087439215e-244</v>
+        <v>1.46933461479389e-221</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>7.398913665614958e-245</v>
+        <v>7.461157129978482e-222</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>2.096111928307495e-245</v>
+        <v>2.199782749227454e-222</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>1.540692795876922e-245</v>
+        <v>1.164032155047852e-222</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>1.084607185319638e-245</v>
+        <v>7.910128011172396e-223</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>6.05508111389148e-246</v>
+        <v>5.972314022690309e-223</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>1.955988839881147e-246</v>
+        <v>4.602285278366285e-223</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>2.21891070785989e-247</v>
+        <v>4.103824609840919e-223</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>4.523048630374309e-248</v>
+        <v>3.94779727988382e-223</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>4.81941366824673e-249</v>
+        <v>3.825819377522378e-223</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>2.310733392662308e-249</v>
+        <v>3.038983356763605e-223</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>9.343065854570631e-250</v>
+        <v>2.451807593678752e-223</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>3.985498077140099e-250</v>
+        <v>2.005387327727499e-223</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>2.423549607374486e-250</v>
+        <v>1.493651637409895e-223</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>1.641310941044051e-250</v>
+        <v>1.340892966052047e-223</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>9.362016799011044e-251</v>
+        <v>1.257286561292332e-223</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>3.684453559119767e-251</v>
+        <v>9.225423601389916e-224</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>2.477413737444048e-251</v>
+        <v>4.97849072105183e-224</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>1.311154171520835e-251</v>
+        <v>2.642275484472872e-224</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>7.414672537259207e-252</v>
+        <v>1.568207956177216e-224</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>5.274384703953512e-252</v>
+        <v>1.328517472117053e-224</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>3.613399554271676e-252</v>
+        <v>1.121546284080792e-224</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>2.817180808044726e-252</v>
+        <v>1.176525731039835e-224</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>1.943257429840559e-252</v>
+        <v>1.098694511972564e-224</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>1.531379776249024e-252</v>
+        <v>8.599919322852523e-225</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>3.920538582948241e-253</v>
+        <v>6.36883822400939e-225</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>1.954868966312655e-253</v>
+        <v>5.309676502318892e-225</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>9.648556416950036e-254</v>
+        <v>4.856587366033653e-225</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>2.365270829675703e-254</v>
+        <v>2.574803454840687e-225</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>1.163085367228657e-254</v>
+        <v>1.875132519811761e-225</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>5.70221621134862e-255</v>
+        <v>4.082707212938439e-226</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>3.881118345209379e-255</v>
+        <v>3.735151824179094e-227</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>3.837221539898652e-255</v>
+        <v>4.591532092635573e-228</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>3.026528093740314e-255</v>
+        <v>7.300303652638741e-229</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>1.650760730550464e-255</v>
+        <v>4.007174745946717e-229</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>1.17076601778136e-255</v>
+        <v>3.144141677546246e-229</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>9.102483146422756e-256</v>
+        <v>2.369407483822893e-229</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>7.459051271989956e-256</v>
+        <v>1.192863735342402e-229</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>5.66670628684218e-256</v>
+        <v>7.492722657994274e-230</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>4.303908885445281e-256</v>
+        <v>4.419756616012339e-230</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>2.972567631034751e-256</v>
+        <v>2.436340192197307e-230</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>2.105529018044543e-256</v>
+        <v>2.398374326365378e-230</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>1.098230335680622e-256</v>
+        <v>1.336644810890743e-230</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>5.361576235152754e-257</v>
+        <v>6.839742768698982e-231</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>1.049603915436635e-257</v>
+        <v>3.737220254698599e-231</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>4.944876710237214e-258</v>
+        <v>2.79072516882721e-231</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>2.327576253821002e-258</v>
+        <v>1.730276049148496e-231</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>5.841109550832592e-259</v>
+        <v>1.397536160226384e-231</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>2.807234041525436e-259</v>
+        <v>1.007615686475528e-231</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>1.793140006852288e-259</v>
+        <v>6.342504334911982e-232</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>1.287251343405967e-259</v>
+        <v>4.617153474069659e-232</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>9.575089926067482e-260</v>
+        <v>3.310170816459477e-232</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>8.383592646016505e-260</v>
+        <v>2.222290979328176e-232</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>8.006174289389213e-260</v>
+        <v>1.591165355644453e-232</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>7.722832858683999e-260</v>
+        <v>1.074273254175288e-232</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>5.917534692814303e-260</v>
+        <v>1.021328503439532e-232</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>4.619857372222778e-260</v>
+        <v>6.564042224129487e-233</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>3.652899347152807e-260</v>
+        <v>3.5020165307001e-233</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>2.637176350369153e-260</v>
+        <v>3.376223325399541e-233</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>2.318477363338926e-260</v>
+        <v>2.014662925286069e-233</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>2.148453160854097e-260</v>
+        <v>1.695161526766245e-233</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>1.497640590781933e-260</v>
+        <v>1.600474805858922e-233</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>7.443396310164956e-261</v>
+        <v>1.446404695130292e-233</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>3.637739694339919e-261</v>
+        <v>1.084795624252381e-233</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>1.995367293880796e-261</v>
+        <v>7.504616089585614e-234</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>1.651019508557395e-261</v>
+        <v>5.622624188749109e-234</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>1.307104072166485e-261</v>
+        <v>4.302934667125265e-234</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>1.260531656625245e-261</v>
+        <v>3.362643331818379e-234</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>1.12425612972514e-261</v>
+        <v>2.54704715309514e-234</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>8.360116996570118e-262</v>
+        <v>1.934179187257312e-234</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>5.866170864826673e-262</v>
+        <v>1.671090373879792e-234</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>4.729377219178963e-262</v>
+        <v>5.16307845381474e-235</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>4.256729849378816e-262</v>
+        <v>1.2657507892218e-235</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>2.040859803695256e-262</v>
+        <v>5.929822448611932e-236</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>1.429908395717157e-262</v>
+        <v>8.028057547292721e-236</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>2.607662037112135e-263</v>
+        <v>4.742358234789054e-236</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>1.717830502316118e-264</v>
+        <v>3.131920349200656e-236</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>1.510482736447198e-265</v>
+        <v>1.821949923322567e-236</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>1.723274775446141e-266</v>
+        <v>1.367434411516217e-236</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>8.083500143531912e-267</v>
+        <v>6.887623719763604e-237</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>5.978683300511797e-267</v>
+        <v>4.480123933898458e-237</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>4.006711789217887e-267</v>
+        <v>1.808181590433242e-237</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>1.714100529181136e-267</v>
+        <v>5.307259859957657e-238</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>9.893005586608705e-268</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>5.376296985968159e-268</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>2.728543217253879e-268</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>2.683350722830071e-268</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1.381191426800438e-268</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>6.489817445777529e-269</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>3.252308648744933e-269</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>2.319124365968433e-269</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1.329328094026476e-269</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1.037779352684097e-269</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>7.159219348802781e-270</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>4.089490888881705e-270</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2.755936320667157e-270</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1.829379217172285e-270</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1.124936554261594e-270</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>7.429220111664963e-271</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>4.601136267317782e-271</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>4.372195448430661e-271</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>2.605196747409861e-271</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1.273518528382289e-271</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1.223908269026438e-271</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>6.833121107879961e-272</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>5.624893077011953e-272</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>5.282575511209987e-272</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>4.506896842416286e-272</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>3.294310405291149e-272</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.122042112240602e-272</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.53976565067643e-272</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.13876322953665e-272</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>8.612936625376046e-273</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>6.291056780712417e-273</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>4.622117103949601e-273</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>3.888127885854134e-273</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1.102889773796236e-273</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>2.476540090613681e-274</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1.106986677056378e-274</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1.4882782875402e-274</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>8.716061144229996e-275</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>5.559061047730755e-275</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>3.031230669808231e-275</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>2.156660503414903e-275</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>9.151537011829145e-276</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>4.986703490624806e-276</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1.696974317965247e-276</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>4.146328655590274e-277</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>2.370130485809196e-277</v>
+        <v>3.233900912936291e-238</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.100000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.100000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>8.831192002841253e-193</v>
+        <v>3.277208152568788e-188</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>1.5995129644062e-193</v>
+        <v>3.210850470493611e-188</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>3.353338162376072e-194</v>
+        <v>3.591986160352196e-188</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>1.765192710010779e-194</v>
+        <v>2.263806676592303e-188</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>9.054433043502735e-195</v>
+        <v>2.186798759247125e-188</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>7.181027589870508e-195</v>
+        <v>1.873377407001902e-188</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>4.560063307848175e-195</v>
+        <v>1.017690356203572e-188</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>7.587179395218438e-195</v>
+        <v>6.992957099493318e-189</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>7.384918724809767e-195</v>
+        <v>4.522344489673652e-189</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>3.066559162065893e-195</v>
+        <v>3.184596194556206e-189</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>1.116307066930103e-195</v>
+        <v>2.017577219748029e-189</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>2.580845053551485e-196</v>
+        <v>7.181401786511154e-190</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>1.611419026233792e-196</v>
+        <v>2.13387525890955e-201</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>1.695257205969841e-196</v>
+        <v>1.644570612435119e-202</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>6.050367993618584e-197</v>
+        <v>1.569797441014237e-202</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>3.325929793765284e-197</v>
+        <v>1.048460793567337e-202</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>1.174028263231544e-197</v>
+        <v>9.670233614349141e-203</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>2.2331017123849e-198</v>
+        <v>1.098499608371983e-202</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>1.40952974458349e-198</v>
+        <v>8.086316067036095e-203</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.067530186087498e-198</v>
+        <v>8.53482319082418e-203</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>7.788879290232379e-199</v>
+        <v>1.391533026871616e-202</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>5.951999461187691e-199</v>
+        <v>1.446038353969536e-202</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>3.805945280023298e-199</v>
+        <v>1.613364167877999e-202</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>4.64266912067905e-199</v>
+        <v>1.353526411783106e-202</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>4.231394269591122e-199</v>
+        <v>9.994123157512646e-203</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>3.982602229294578e-199</v>
+        <v>8.729917937247655e-203</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>3.594892542088892e-199</v>
+        <v>6.753753106828187e-203</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>1.322215633094498e-199</v>
+        <v>6.200749573268324e-203</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>2.69972990018093e-200</v>
+        <v>5.301570520645053e-203</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>5.208984667754669e-201</v>
+        <v>4.311110777694379e-203</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>9.530328336989057e-202</v>
+        <v>3.20532011251372e-203</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>3.762048163108913e-202</v>
+        <v>2.382833118594165e-203</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>9.593695624916189e-203</v>
+        <v>2.151344191781828e-203</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>3.255013650673831e-203</v>
+        <v>1.523156836340872e-203</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.245882226879785e-203</v>
+        <v>1.182795429348553e-203</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>8.809782152368891e-204</v>
+        <v>6.177396711001467e-204</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>7.0111104019306e-204</v>
+        <v>4.931057960798583e-204</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>6.407233801880176e-205</v>
+        <v>3.716657015894454e-204</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>1.059891869352682e-205</v>
+        <v>3.527829172203166e-204</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>3.468269386418636e-206</v>
+        <v>4.656041256387198e-204</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>4.327424055194159e-207</v>
+        <v>3.787299985232372e-204</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>7.645355628248763e-208</v>
+        <v>2.795273107360372e-204</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>1.899701382956094e-208</v>
+        <v>1.440470181697613e-204</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>2.634132244359631e-208</v>
+        <v>8.640209922412082e-205</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>2.051488952630683e-208</v>
+        <v>4.677170745422758e-205</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>7.915572234043727e-209</v>
+        <v>3.049063988973999e-206</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>5.009071157770735e-209</v>
+        <v>3.990304309326753e-207</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>2.677272997234166e-209</v>
+        <v>5.987494753155026e-208</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>8.756602366246188e-210</v>
+        <v>2.675248326206946e-208</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>2.490313620771206e-210</v>
+        <v>1.161827590286961e-208</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>8.34383325221721e-211</v>
+        <v>7.79084943767278e-209</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>6.353581304491436e-211</v>
+        <v>4.196993538713807e-209</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>4.709659314680557e-211</v>
+        <v>6.446570008089568e-209</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>2.846817303082036e-211</v>
+        <v>5.755372492130139e-209</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>1.082562660093795e-211</v>
+        <v>2.027754558457648e-209</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>1.715457819919e-212</v>
+        <v>6.462216730682709e-210</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>4.579952592591992e-213</v>
+        <v>1.30819574019809e-210</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>7.219622378267775e-214</v>
+        <v>7.900466198585074e-211</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>4.087770735046269e-214</v>
+        <v>8.036740869371693e-211</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>1.95832134404558e-214</v>
+        <v>2.764401332045535e-211</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>9.833863836023462e-215</v>
+        <v>1.447812220711187e-211</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>6.626836170861036e-215</v>
+        <v>4.695672127529991e-212</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>4.799128527369798e-215</v>
+        <v>7.584801019952798e-213</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>3.060874821159509e-215</v>
+        <v>4.637036180948963e-213</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>1.418065459468146e-215</v>
+        <v>3.374875195839408e-213</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>1.010860372413807e-215</v>
+        <v>2.241521294904478e-213</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>5.958285278557745e-216</v>
+        <v>1.61049386696663e-213</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>3.667654659432599e-216</v>
+        <v>9.641755962228989e-214</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>2.736686672946183e-216</v>
+        <v>1.021400852362315e-213</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>1.974493953896003e-216</v>
+        <v>8.845463802776851e-214</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>1.595857925522293e-216</v>
+        <v>7.008061812403833e-214</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>1.152396117507305e-216</v>
+        <v>5.323691580777752e-214</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>9.361459914279684e-217</v>
+        <v>1.66166154884849e-214</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>2.833056610413592e-217</v>
+        <v>2.876898393702714e-215</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>1.54403772905919e-217</v>
+        <v>4.719804475648507e-216</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>8.225377518693314e-218</v>
+        <v>7.25727179772612e-217</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>2.379197122766648e-218</v>
+        <v>2.447012181768465e-217</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>1.278556149400395e-218</v>
+        <v>5.352959056549588e-218</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>6.793709052039475e-219</v>
+        <v>1.5142207091547e-218</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>4.852003513533034e-219</v>
+        <v>5.30172817761581e-219</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>4.806688317717012e-219</v>
+        <v>3.467342401727256e-219</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>3.916516515916437e-219</v>
+        <v>2.33531270146315e-219</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>2.320231780468641e-219</v>
+        <v>1.52724330834742e-220</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>1.730434828052258e-219</v>
+        <v>2.134971912470573e-221</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>1.397029019391628e-219</v>
+        <v>5.955825971664037e-222</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>1.196863173093857e-219</v>
+        <v>5.333287137190604e-223</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>9.575868255563199e-220</v>
+        <v>6.703711480372141e-224</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>7.620137978047491e-220</v>
+        <v>1.205195653023421e-224</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>5.556472156622943e-220</v>
+        <v>1.530963059943963e-224</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>4.123641830755685e-220</v>
+        <v>1.120553017735277e-224</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>2.343940460740992e-220</v>
+        <v>3.607446722452285e-225</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>1.240637259445746e-220</v>
+        <v>2.093696272927619e-225</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>2.869051430363463e-221</v>
+        <v>1.024701847976249e-225</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>1.46933461479389e-221</v>
+        <v>2.856900828033003e-226</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>7.461157129978482e-222</v>
+        <v>6.894648244605618e-227</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>2.199782749227454e-222</v>
+        <v>1.957948078142888e-227</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>1.164032155047852e-222</v>
+        <v>1.439584038680493e-227</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>7.910128011172396e-223</v>
+        <v>1.003527245644885e-227</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>5.972314022690309e-223</v>
+        <v>5.658321911484754e-228</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>4.602285278366285e-223</v>
+        <v>1.82180192566807e-228</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>4.103824609840919e-223</v>
+        <v>2.067646196803061e-229</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>3.94779727988382e-223</v>
+        <v>4.220027475521146e-230</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>3.825819377522378e-223</v>
+        <v>4.490559452014713e-231</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>3.038983356763605e-223</v>
+        <v>2.151091546174421e-231</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>2.451807593678752e-223</v>
+        <v>8.709732407349449e-232</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>2.005387327727499e-223</v>
+        <v>3.711850543465877e-232</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>1.493651637409895e-223</v>
+        <v>2.257830750034563e-232</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>1.340892966052047e-223</v>
+        <v>1.528392707102407e-232</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>1.257286561292332e-223</v>
+        <v>8.731033042633526e-233</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>9.225423601389916e-224</v>
+        <v>3.435564645452543e-233</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>4.97849072105183e-224</v>
+        <v>2.308819399164446e-233</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>2.642275484472872e-224</v>
+        <v>1.220581464256448e-233</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>1.568207956177216e-224</v>
+        <v>6.907531420889561e-234</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>1.328517472117053e-224</v>
+        <v>4.915446141270515e-234</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>1.121546284080792e-224</v>
+        <v>3.36593107918887e-234</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>1.176525731039835e-224</v>
+        <v>2.620420744506849e-234</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>1.098694511972564e-224</v>
+        <v>1.810088571721572e-234</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>8.599919322852523e-225</v>
+        <v>1.427063798027345e-234</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>6.36883822400939e-225</v>
+        <v>3.653884856996392e-235</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>5.309676502318892e-225</v>
+        <v>1.819591443566496e-235</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>4.856587366033653e-225</v>
+        <v>9.00035634895551e-236</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>2.574803454840687e-225</v>
+        <v>2.20288727968396e-236</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>1.875132519811761e-225</v>
+        <v>1.083283128793338e-236</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>4.082707212938439e-226</v>
+        <v>5.317854711909674e-237</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>3.735151824179094e-227</v>
+        <v>3.617888513147437e-237</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>4.591532092635573e-228</v>
+        <v>3.577856854266961e-237</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>7.300303652638741e-229</v>
+        <v>2.825871043488231e-237</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>4.007174745946717e-229</v>
+        <v>1.537758764569829e-237</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>3.144141677546246e-229</v>
+        <v>1.093276861838111e-237</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>2.369407483822893e-229</v>
+        <v>8.473518963894736e-238</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>1.192863735342402e-229</v>
+        <v>6.950499692944267e-238</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>7.492722657994274e-230</v>
+        <v>5.276835839103282e-238</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>4.419756616012339e-230</v>
+        <v>4.008968369405647e-238</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>2.436340192197307e-230</v>
+        <v>2.772657477823236e-238</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>2.398374326365378e-230</v>
+        <v>1.960117852991539e-238</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>1.336644810890743e-230</v>
+        <v>1.02260500058259e-238</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>6.839742768698982e-231</v>
+        <v>4.996974158648406e-239</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>3.737220254698599e-231</v>
+        <v>9.778067243345297e-240</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>2.79072516882721e-231</v>
+        <v>4.592542755339395e-240</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>1.730276049148496e-231</v>
+        <v>2.171567071999718e-240</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>1.397536160226384e-231</v>
+        <v>5.452162356166372e-241</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>1.007615686475528e-231</v>
+        <v>2.611933877339448e-241</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>6.342504334911982e-232</v>
+        <v>1.662290070139612e-241</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>4.617153474069659e-232</v>
+        <v>1.198190525947588e-241</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>3.310170816459477e-232</v>
+        <v>8.919522326658682e-242</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>2.222290979328176e-232</v>
+        <v>7.850669334012907e-242</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>1.591165355644453e-232</v>
+        <v>7.471720179537391e-242</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>1.074273254175288e-232</v>
+        <v>7.200201133898448e-242</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>1.021328503439532e-232</v>
+        <v>5.510071002397216e-242</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>6.564042224129487e-233</v>
+        <v>4.286659131096581e-242</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>3.5020165307001e-233</v>
+        <v>3.390179249943247e-242</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>3.376223325399541e-233</v>
+        <v>2.468062846728619e-242</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>2.014662925286069e-233</v>
+        <v>2.158913494319656e-242</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>1.695161526766245e-233</v>
+        <v>2.007047455102406e-242</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>1.600474805858922e-233</v>
+        <v>1.395377458295598e-242</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>1.446404695130292e-233</v>
+        <v>6.93823098664478e-243</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>1.084795624252381e-233</v>
+        <v>3.410195390900349e-243</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>7.504616089585614e-234</v>
+        <v>1.856149673595018e-243</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>5.622624188749109e-234</v>
+        <v>1.53658198930456e-243</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>4.302934667125265e-234</v>
+        <v>1.214865581443099e-243</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>3.362643331818379e-234</v>
+        <v>1.181617047031084e-243</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>2.54704715309514e-234</v>
+        <v>1.044731435660601e-243</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>1.934179187257312e-234</v>
+        <v>7.784451056111416e-244</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>1.671090373879792e-234</v>
+        <v>5.453058641902521e-244</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>5.16307845381474e-235</v>
+        <v>4.401367711476243e-244</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>1.2657507892218e-235</v>
+        <v>3.964348550038632e-244</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>5.929822448611932e-236</v>
+        <v>1.898889434995816e-244</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>8.028057547292721e-236</v>
+        <v>1.33352563518117e-244</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>4.742358234789054e-236</v>
+        <v>2.429659898255485e-245</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>3.131920349200656e-236</v>
+        <v>1.598338228427524e-246</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>1.821949923322567e-236</v>
+        <v>1.408860255643806e-247</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>1.367434411516217e-236</v>
+        <v>1.607681953035853e-248</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>6.887623719763604e-237</v>
+        <v>7.549277220504855e-249</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>4.480123933898458e-237</v>
+        <v>5.553171133653155e-249</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>1.808181590433242e-237</v>
+        <v>3.721362771544006e-249</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>5.307259859957657e-238</v>
+        <v>1.605791238069473e-249</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>3.233900912936291e-238</v>
+        <v>9.207472373432534e-250</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5.004928756418704e-250</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.536053242654398e-250</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.498978812746913e-250</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.286626129886882e-250</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>6.038509179827018e-251</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>3.038271309196962e-251</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.17692299891719e-251</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.241769986730892e-251</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>9.689004077768005e-252</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>6.70225602603636e-252</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>3.81823713914899e-252</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.576040908287886e-252</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.70540842115139e-252</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.046161428038015e-252</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>6.912599173041378e-253</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4.289610713002883e-253</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4.073916016480595e-253</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2.421564791550731e-253</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.187681873571888e-253</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.140752520050621e-253</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>6.375421233518834e-254</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5.24752563662595e-254</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>4.928662844466896e-254</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4.19866101482829e-254</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>3.068825709958559e-254</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1.970709699616487e-254</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.43442707593502e-254</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.061118597252909e-254</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>8.026441303351052e-255</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>5.851161041990786e-255</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>4.304125781258559e-255</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3.629794086945355e-255</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.030199744778439e-255</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2.305250940942567e-256</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.029673557285731e-256</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1.386187191326564e-256</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>8.118669551962354e-257</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>5.17101210841363e-257</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2.799344371361006e-257</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.966497933533716e-257</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>8.540173879651128e-258</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>4.638463094508526e-258</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.578018921318367e-258</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>3.861305258088331e-259</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2.203174547842698e-259</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.100000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.100000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>3.277208152568788e-188</v>
+        <v>3.225463020923468e-193</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>3.210850470493611e-188</v>
+        <v>5.708634953258002e-194</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>3.591986160352196e-188</v>
+        <v>1.186134811394355e-194</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>2.263806676592303e-188</v>
+        <v>6.339747307254328e-195</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>2.186798759247125e-188</v>
+        <v>3.227628468774223e-195</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>1.873377407001902e-188</v>
+        <v>2.504456222866585e-195</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>1.017690356203572e-188</v>
+        <v>1.592772584329413e-195</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>6.992957099493318e-189</v>
+        <v>2.592476213537444e-195</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>4.522344489673652e-189</v>
+        <v>2.521761919108785e-195</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>3.184596194556206e-189</v>
+        <v>1.046748930696978e-195</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>2.017577219748029e-189</v>
+        <v>3.804480616263843e-196</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>7.181401786511154e-190</v>
+        <v>8.824002698824296e-197</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>2.13387525890955e-201</v>
+        <v>5.535911748692277e-197</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>1.644570612435119e-202</v>
+        <v>5.802419919896856e-197</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>1.569797441014237e-202</v>
+        <v>2.108960866373141e-197</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>1.048460793567337e-202</v>
+        <v>1.134719261740206e-197</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>9.670233614349141e-203</v>
+        <v>4.049469635721622e-198</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>1.098499608371983e-202</v>
+        <v>8.042999278651885e-199</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>8.086316067036095e-203</v>
+        <v>5.049785240375972e-199</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>8.53482319082418e-203</v>
+        <v>3.781310701685281e-199</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>1.391533026871616e-202</v>
+        <v>2.83876713544187e-199</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>1.446038353969536e-202</v>
+        <v>2.154214192894241e-199</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>1.613364167877999e-202</v>
+        <v>1.371480704680544e-199</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>1.353526411783106e-202</v>
+        <v>1.611664780089331e-199</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>9.994123157512646e-203</v>
+        <v>1.517558849293455e-199</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>8.729917937247655e-203</v>
+        <v>1.365656587772791e-199</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>6.753753106828187e-203</v>
+        <v>1.240207252457843e-199</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>6.200749573268324e-203</v>
+        <v>4.60563580319964e-200</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>5.301570520645053e-203</v>
+        <v>9.227778932264152e-201</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>4.311110777694379e-203</v>
+        <v>1.803362121924966e-201</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>3.20532011251372e-203</v>
+        <v>3.316805029984445e-202</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>2.382833118594165e-203</v>
+        <v>1.296673314387311e-202</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>2.151344191781828e-203</v>
+        <v>3.251375352101414e-203</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>1.523156836340872e-203</v>
+        <v>1.161646240783354e-203</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>1.182795429348553e-203</v>
+        <v>4.141957343530971e-204</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>6.177396711001467e-204</v>
+        <v>3.10581647630583e-204</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>4.931057960798583e-204</v>
+        <v>2.4596121590762e-204</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>3.716657015894454e-204</v>
+        <v>2.251379433584243e-205</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>3.527829172203166e-204</v>
+        <v>3.723072600456378e-206</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>4.656041256387198e-204</v>
+        <v>1.27826918499409e-206</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>3.787299985232372e-204</v>
+        <v>1.568039582475653e-207</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>2.795273107360372e-204</v>
+        <v>2.647237660217147e-208</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>1.440470181697613e-204</v>
+        <v>6.779576059281167e-209</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>8.640209922412082e-205</v>
+        <v>9.159605296376986e-209</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>4.677170745422758e-205</v>
+        <v>7.143377682708958e-209</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>3.049063988973999e-206</v>
+        <v>2.781886700308937e-209</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>3.990304309326753e-207</v>
+        <v>1.738248450379725e-209</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>5.987494753155026e-208</v>
+        <v>9.171687940563911e-210</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>2.675248326206946e-208</v>
+        <v>3.073055566984798e-210</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>1.161827590286961e-208</v>
+        <v>8.794488304874616e-211</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>7.79084943767278e-209</v>
+        <v>2.992925070818942e-211</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>4.196993538713807e-209</v>
+        <v>2.240912264844629e-211</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>6.446570008089568e-209</v>
+        <v>1.645597779578484e-211</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>5.755372492130139e-209</v>
+        <v>1.000367826046628e-211</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>2.027754558457648e-209</v>
+        <v>3.792057585244272e-212</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>6.462216730682709e-210</v>
+        <v>6.031958294773655e-213</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>1.30819574019809e-210</v>
+        <v>1.608713610320685e-213</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>7.900466198585074e-211</v>
+        <v>2.515747956762704e-214</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>8.036740869371693e-211</v>
+        <v>1.403683147477998e-214</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>2.764401332045535e-211</v>
+        <v>6.765915751096607e-215</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>1.447812220711187e-211</v>
+        <v>3.360290499848906e-215</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>4.695672127529991e-212</v>
+        <v>2.259943427799167e-215</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>7.584801019952798e-213</v>
+        <v>1.640284456151817e-215</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>4.637036180948963e-213</v>
+        <v>1.051440944395939e-215</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>3.374875195839408e-213</v>
+        <v>4.867226799143601e-216</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>2.241521294904478e-213</v>
+        <v>3.448477388321683e-216</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>1.61049386696663e-213</v>
+        <v>2.024537710481135e-216</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>9.641755962228989e-214</v>
+        <v>1.248735655788703e-216</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>1.021400852362315e-213</v>
+        <v>9.401039991392101e-217</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>8.845463802776851e-214</v>
+        <v>6.728644249298269e-217</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>7.008061812403833e-214</v>
+        <v>5.459189360554964e-217</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>5.323691580777752e-214</v>
+        <v>3.928531923532146e-217</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>1.66166154884849e-214</v>
+        <v>3.208215854545837e-217</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>2.876898393702714e-215</v>
+        <v>9.696829869476695e-218</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>4.719804475648507e-216</v>
+        <v>5.269216181782575e-218</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>7.25727179772612e-217</v>
+        <v>2.809037287306522e-218</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>2.447012181768465e-217</v>
+        <v>8.170869640837108e-219</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>5.352959056549588e-218</v>
+        <v>4.37847663855967e-219</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>1.5142207091547e-218</v>
+        <v>2.34551395957941e-219</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>5.30172817761581e-219</v>
+        <v>1.672853425415086e-219</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>3.467342401727256e-219</v>
+        <v>1.648155101494241e-219</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>2.33531270146315e-219</v>
+        <v>1.352779485689156e-219</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>1.52724330834742e-220</v>
+        <v>7.970577092816273e-220</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>2.134971912470573e-221</v>
+        <v>5.977714774490772e-220</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>5.955825971664037e-222</v>
+        <v>4.816541220462376e-220</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>5.333287137190604e-223</v>
+        <v>4.087579115341e-220</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>6.703711480372141e-224</v>
+        <v>3.286296915853358e-220</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>1.205195653023421e-224</v>
+        <v>2.615234767185693e-220</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>1.530963059943963e-224</v>
+        <v>1.908870726235129e-220</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>1.120553017735277e-224</v>
+        <v>1.409937752525181e-220</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>3.607446722452285e-225</v>
+        <v>8.000426913674777e-221</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>2.093696272927619e-225</v>
+        <v>4.281621777192347e-221</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>1.024701847976249e-225</v>
+        <v>9.867352363630483e-222</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>2.856900828033003e-226</v>
+        <v>5.062051855784084e-222</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>6.894648244605618e-227</v>
+        <v>2.595186887230092e-222</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>1.957948078142888e-227</v>
+        <v>7.679106746153503e-223</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>1.439584038680493e-227</v>
+        <v>4.076789860788265e-223</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>1.003527245644885e-227</v>
+        <v>2.773538635376219e-223</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>5.658321911484754e-228</v>
+        <v>2.087882055418204e-223</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>1.82180192566807e-228</v>
+        <v>1.61116883318925e-223</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>2.067646196803061e-229</v>
+        <v>1.443104913323371e-223</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>4.220027475521146e-230</v>
+        <v>1.397763508573116e-223</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>4.490559452014713e-231</v>
+        <v>1.339954678999127e-223</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>2.151091546174421e-231</v>
+        <v>1.056115942759003e-223</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>8.709732407349449e-232</v>
+        <v>8.439804072802896e-224</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>3.711850543465877e-232</v>
+        <v>6.831843944740407e-224</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>2.257830750034563e-232</v>
+        <v>5.310487214438442e-224</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>1.528392707102407e-232</v>
+        <v>4.747254733730741e-224</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>8.731033042633526e-233</v>
+        <v>4.464746326229496e-224</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>3.435564645452543e-233</v>
+        <v>3.279322192476175e-224</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>2.308819399164446e-233</v>
+        <v>1.762891607059035e-224</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>1.220581464256448e-233</v>
+        <v>9.457627934981903e-225</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>6.907531420889561e-234</v>
+        <v>5.59241601645742e-225</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>4.915446141270515e-234</v>
+        <v>4.728655554776111e-225</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>3.36593107918887e-234</v>
+        <v>4.0176203276912e-225</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>2.620420744506849e-234</v>
+        <v>4.151810712946715e-225</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>1.810088571721572e-234</v>
+        <v>3.800642505487979e-225</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>1.427063798027345e-234</v>
+        <v>3.011546404507569e-225</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>3.653884856996392e-235</v>
+        <v>2.205714992845183e-225</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>1.819591443566496e-235</v>
+        <v>1.860470505385597e-225</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>9.00035634895551e-236</v>
+        <v>1.691326309993414e-225</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>2.20288727968396e-236</v>
+        <v>8.979465783578793e-226</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>1.083283128793338e-236</v>
+        <v>6.539092525783242e-226</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>5.317854711909674e-237</v>
+        <v>1.438623455680432e-226</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>3.617888513147437e-237</v>
+        <v>1.32254378423412e-227</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>3.577856854266961e-237</v>
+        <v>1.64659904832338e-228</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>2.825871043488231e-237</v>
+        <v>2.576869650155258e-229</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>1.537758764569829e-237</v>
+        <v>1.417360098862874e-229</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>1.093276861838111e-237</v>
+        <v>1.100901815825962e-229</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>8.473518963894736e-238</v>
+        <v>8.267378717102151e-230</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>6.950499692944267e-238</v>
+        <v>4.157426203058771e-230</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>5.276835839103282e-238</v>
+        <v>2.628199337497337e-230</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>4.008968369405647e-238</v>
+        <v>1.531627348404642e-230</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>2.772657477823236e-238</v>
+        <v>8.352720492767632e-231</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>1.960117852991539e-238</v>
+        <v>4.619772122663013e-231</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>1.02260500058259e-238</v>
+        <v>2.352828667510259e-231</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>4.996974158648406e-239</v>
+        <v>1.303418521284774e-231</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>9.778067243345297e-240</v>
+        <v>9.955426589569246e-232</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>4.592542755339395e-240</v>
+        <v>5.952186137944449e-232</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>2.171567071999718e-240</v>
+        <v>4.87087975960931e-232</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>5.452162356166372e-241</v>
+        <v>3.601991603531621e-232</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>2.611933877339448e-241</v>
+        <v>2.237621784024258e-232</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>1.662290070139612e-241</v>
+        <v>1.616860126666299e-232</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>1.198190525947588e-241</v>
+        <v>1.154402096241757e-232</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>8.919522326658682e-242</v>
+        <v>7.724490246205918e-233</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>7.850669334012907e-242</v>
+        <v>5.486702448179602e-233</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>7.471720179537391e-242</v>
+        <v>3.619266977419313e-233</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>7.200201133898448e-242</v>
+        <v>2.246544819306656e-233</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>5.510071002397216e-242</v>
+        <v>1.215347637161353e-233</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>4.286659131096581e-242</v>
+        <v>1.171544772074601e-233</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>3.390179249943247e-242</v>
+        <v>7.019680717312005e-234</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>2.468062846728619e-242</v>
+        <v>5.864235661095538e-234</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>2.158913494319656e-242</v>
+        <v>5.555170870651986e-234</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>2.007047455102406e-242</v>
+        <v>4.965289953300672e-234</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>1.395377458295598e-242</v>
+        <v>3.761384336701167e-234</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>6.93823098664478e-243</v>
+        <v>2.592099979663075e-234</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>3.410195390900349e-243</v>
+        <v>1.955506254011043e-234</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>1.856149673595018e-243</v>
+        <v>1.492381068868165e-234</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>1.53658198930456e-243</v>
+        <v>1.16586525749419e-234</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>1.214865581443099e-243</v>
+        <v>8.78665614436847e-235</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>1.181617047031084e-243</v>
+        <v>6.75090430374571e-235</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>1.044731435660601e-243</v>
+        <v>5.833329894172151e-235</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>7.784451056111416e-244</v>
+        <v>1.833271015619822e-235</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>5.453058641902521e-244</v>
+        <v>4.516309405213763e-236</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>4.401367711476243e-244</v>
+        <v>2.072155937596329e-236</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>3.964348550038632e-244</v>
+        <v>2.869112481156532e-236</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>1.898889434995816e-244</v>
+        <v>1.685259333424423e-236</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>1.33352563518117e-244</v>
+        <v>1.099198750681578e-236</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>2.429659898255485e-245</v>
+        <v>6.306283373657905e-237</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>1.598338228427524e-246</v>
+        <v>4.652962301722456e-237</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>1.408860255643806e-247</v>
+        <v>2.481421293608133e-237</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>1.607681953035853e-248</v>
+        <v>1.589705598933258e-237</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>7.549277220504855e-249</v>
+        <v>6.416085015250176e-238</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>5.553171133653155e-249</v>
+        <v>1.884561297072046e-238</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>3.721362771544006e-249</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1.605791238069473e-249</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>9.207472373432534e-250</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>5.004928756418704e-250</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>2.536053242654398e-250</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>2.498978812746913e-250</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1.286626129886882e-250</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>6.038509179827018e-251</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>3.038271309196962e-251</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>2.17692299891719e-251</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1.241769986730892e-251</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>9.689004077768005e-252</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>6.70225602603636e-252</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>3.81823713914899e-252</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2.576040908287886e-252</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1.70540842115139e-252</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1.046161428038015e-252</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>6.912599173041378e-253</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>4.289610713002883e-253</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>4.073916016480595e-253</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>2.421564791550731e-253</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1.187681873571888e-253</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1.140752520050621e-253</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>6.375421233518834e-254</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>5.24752563662595e-254</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>4.928662844466896e-254</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>4.19866101482829e-254</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>3.068825709958559e-254</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>1.970709699616487e-254</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.43442707593502e-254</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.061118597252909e-254</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>8.026441303351052e-255</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>5.851161041990786e-255</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>4.304125781258559e-255</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>3.629794086945355e-255</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1.030199744778439e-255</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>2.305250940942567e-256</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1.029673557285731e-256</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1.386187191326564e-256</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>8.118669551962354e-257</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>5.17101210841363e-257</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>2.799344371361006e-257</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1.966497933533716e-257</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>8.540173879651128e-258</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>4.638463094508526e-258</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1.578018921318367e-258</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>3.861305258088331e-259</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>2.203174547842698e-259</v>
+        <v>1.142623309274729e-238</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.100000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.100000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>3.225463020923468e-193</v>
+        <v>1.687802938425215e-193</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>5.708634953258002e-194</v>
+        <v>3.541200136910318e-194</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>1.186134811394355e-194</v>
+        <v>8.463891955301565e-195</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>6.339747307254328e-195</v>
+        <v>5.237020793005521e-195</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>3.227628468774223e-195</v>
+        <v>2.899360730848725e-195</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>2.504456222866585e-195</v>
+        <v>2.296981792766632e-195</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>1.592772584329413e-195</v>
+        <v>1.545640279847172e-195</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>2.592476213537444e-195</v>
+        <v>2.531100467608478e-195</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>2.521761919108785e-195</v>
+        <v>2.468957809090865e-195</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>1.046748930696978e-195</v>
+        <v>1.038951870084892e-195</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>3.804480616263843e-196</v>
+        <v>3.75474809726492e-196</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>8.824002698824296e-197</v>
+        <v>8.73845698166674e-197</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>5.535911748692277e-197</v>
+        <v>5.372897670617876e-197</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>5.802419919896856e-197</v>
+        <v>5.729416934108166e-197</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>2.108960866373141e-197</v>
+        <v>2.012991559774336e-197</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>1.134719261740206e-197</v>
+        <v>1.084325865503286e-197</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>4.049469635721622e-198</v>
+        <v>3.503067408104326e-198</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>8.042999278651885e-199</v>
+        <v>6.504531518856845e-199</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>5.049785240375972e-199</v>
+        <v>4.056520500234146e-199</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>3.781310701685281e-199</v>
+        <v>2.872346942156281e-199</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>2.83876713544187e-199</v>
+        <v>2.412985068426669e-199</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>2.154214192894241e-199</v>
+        <v>2.043573163667485e-199</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>1.371480704680544e-199</v>
+        <v>1.154738933446781e-199</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>1.611664780089331e-199</v>
+        <v>1.397945019117714e-199</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>1.517558849293455e-199</v>
+        <v>1.344184892760285e-199</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>1.365656587772791e-199</v>
+        <v>1.352966690332276e-199</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>1.240207252457843e-199</v>
+        <v>1.232798787065322e-199</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>4.60563580319964e-200</v>
+        <v>4.546782597749071e-200</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>9.227778932264152e-201</v>
+        <v>9.171801954304908e-201</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>1.803362121924966e-201</v>
+        <v>1.740024113912503e-201</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>3.316805029984445e-202</v>
+        <v>3.174236652594827e-202</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>1.296673314387311e-202</v>
+        <v>1.233880262455345e-202</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>3.251375352101414e-203</v>
+        <v>3.342671832522155e-203</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>1.161646240783354e-203</v>
+        <v>8.91236428164349e-204</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>4.141957343530971e-204</v>
+        <v>4.064066460412256e-204</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>3.10581647630583e-204</v>
+        <v>3.0056668589279e-204</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>2.4596121590762e-204</v>
+        <v>2.418648725375403e-204</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>2.251379433584243e-205</v>
+        <v>2.212733802251889e-205</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>3.723072600456378e-206</v>
+        <v>3.413379146463393e-206</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>1.27826918499409e-206</v>
+        <v>1.120580757518579e-206</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>1.568039582475653e-207</v>
+        <v>1.457684548926506e-207</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>2.647237660217147e-208</v>
+        <v>2.420087856866139e-208</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>6.779576059281167e-209</v>
+        <v>6.65039102236402e-209</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>9.159605296376986e-209</v>
+        <v>9.030482594373287e-209</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>7.143377682708958e-209</v>
+        <v>7.04361798345175e-209</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>2.781886700308937e-209</v>
+        <v>2.781571744432651e-209</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>1.738248450379725e-209</v>
+        <v>1.730886365354254e-209</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>9.171687940563911e-210</v>
+        <v>9.047764374160196e-210</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>3.073055566984798e-210</v>
+        <v>3.024317815716881e-210</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>8.794488304874616e-211</v>
+        <v>8.841478536884614e-211</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>2.992925070818942e-211</v>
+        <v>2.965197848642451e-211</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>2.240912264844629e-211</v>
+        <v>2.265783664423744e-211</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>1.645597779578484e-211</v>
+        <v>1.619122456705522e-211</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>1.000367826046628e-211</v>
+        <v>9.592908544704258e-212</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>3.792057585244272e-212</v>
+        <v>3.649506207713401e-212</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>6.031958294773655e-213</v>
+        <v>5.94448034328288e-213</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>1.608713610320685e-213</v>
+        <v>1.586127165077801e-213</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>2.515747956762704e-214</v>
+        <v>2.51650330843517e-214</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>1.403683147477998e-214</v>
+        <v>1.410994210721652e-214</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>6.765915751096607e-215</v>
+        <v>6.793941509995045e-215</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>3.360290499848906e-215</v>
+        <v>3.368919445521823e-215</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>2.259943427799167e-215</v>
+        <v>2.270389291862315e-215</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>1.640284456151817e-215</v>
+        <v>1.643068886828983e-215</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>1.051440944395939e-215</v>
+        <v>1.05246285958611e-215</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>4.867226799143601e-216</v>
+        <v>4.893022535359622e-216</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>3.448477388321683e-216</v>
+        <v>3.459157986803532e-216</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>2.024537710481135e-216</v>
+        <v>2.047169009918602e-216</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>1.248735655788703e-216</v>
+        <v>1.251843526106807e-216</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>9.401039991392101e-217</v>
+        <v>9.465290040089161e-217</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>6.728644249298269e-217</v>
+        <v>6.759707002428816e-217</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>5.459189360554964e-217</v>
+        <v>5.469054511616088e-217</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>3.928531923532146e-217</v>
+        <v>3.967656300081925e-217</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>3.208215854545837e-217</v>
+        <v>3.220476440284434e-217</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>9.696829869476695e-218</v>
+        <v>9.779435264964523e-218</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>5.269216181782575e-218</v>
+        <v>5.270925831737473e-218</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>2.809037287306522e-218</v>
+        <v>2.818202812850996e-218</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>8.170869640837108e-219</v>
+        <v>8.221474473067323e-219</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>4.37847663855967e-219</v>
+        <v>4.400572625324454e-219</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>2.34551395957941e-219</v>
+        <v>2.350788988265781e-219</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>1.672853425415086e-219</v>
+        <v>1.680187274137483e-219</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>1.648155101494241e-219</v>
+        <v>1.652322100572063e-219</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>1.352779485689156e-219</v>
+        <v>1.357173761158337e-219</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>7.970577092816273e-220</v>
+        <v>7.988210608563749e-220</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>5.977714774490772e-220</v>
+        <v>5.985879362928457e-220</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>4.816541220462376e-220</v>
+        <v>4.82005042128243e-220</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>4.087579115341e-220</v>
+        <v>4.103641952015224e-220</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>3.286296915853358e-220</v>
+        <v>3.286621522528382e-220</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>2.615234767185693e-220</v>
+        <v>2.613781959355719e-220</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>1.908870726235129e-220</v>
+        <v>1.909624814983772e-220</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>1.409937752525181e-220</v>
+        <v>1.414361049467572e-220</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>8.000426913674777e-221</v>
+        <v>7.994940873445679e-221</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>4.281621777192347e-221</v>
+        <v>4.303814453699527e-221</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>9.867352363630483e-222</v>
+        <v>9.929832030235337e-222</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>5.062051855784084e-222</v>
+        <v>5.115233367420848e-222</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>2.595186887230092e-222</v>
+        <v>2.608653186499746e-222</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>7.679106746153503e-223</v>
+        <v>7.7232857013901e-223</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>4.076789860788265e-223</v>
+        <v>4.083099621249891e-223</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>2.773538635376219e-223</v>
+        <v>2.774470802741057e-223</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>2.087882055418204e-223</v>
+        <v>2.075730026565368e-223</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>1.61116883318925e-223</v>
+        <v>1.600401982692575e-223</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>1.443104913323371e-223</v>
+        <v>1.44414754492565e-223</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>1.397763508573116e-223</v>
+        <v>1.387655095121042e-223</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>1.339954678999127e-223</v>
+        <v>1.3417966001768e-223</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>1.056115942759003e-223</v>
+        <v>1.065814624359702e-223</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>8.439804072802896e-224</v>
+        <v>8.40207795602926e-224</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>6.831843944740407e-224</v>
+        <v>6.81962336196494e-224</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>5.310487214438442e-224</v>
+        <v>5.282744211888666e-224</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>4.747254733730741e-224</v>
+        <v>4.705967496997031e-224</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>4.464746326229496e-224</v>
+        <v>4.458961180838868e-224</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>3.279322192476175e-224</v>
+        <v>3.230823157160346e-224</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>1.762891607059035e-224</v>
+        <v>1.747422865795814e-224</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>9.457627934981903e-225</v>
+        <v>9.498570397892352e-225</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>5.59241601645742e-225</v>
+        <v>5.592725449270797e-225</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>4.728655554776111e-225</v>
+        <v>4.792209087538687e-225</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>4.0176203276912e-225</v>
+        <v>4.002991628015242e-225</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>4.151810712946715e-225</v>
+        <v>4.132832287641924e-225</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>3.800642505487979e-225</v>
+        <v>3.803981183110169e-225</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>3.011546404507569e-225</v>
+        <v>3.003416381959657e-225</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>2.205714992845183e-225</v>
+        <v>2.202839733802263e-225</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>1.860470505385597e-225</v>
+        <v>1.858827902217836e-225</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>1.691326309993414e-225</v>
+        <v>1.697648543114698e-225</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>8.979465783578793e-226</v>
+        <v>9.029511610387604e-226</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>6.539092525783242e-226</v>
+        <v>6.581738423651686e-226</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>1.438623455680432e-226</v>
+        <v>1.441357285006735e-226</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>1.32254378423412e-227</v>
+        <v>1.333674583460535e-227</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>1.64659904832338e-228</v>
+        <v>1.647439704851682e-228</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>2.576869650155258e-229</v>
+        <v>2.597959223581677e-229</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>1.417360098862874e-229</v>
+        <v>1.417667116569037e-229</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>1.100901815825962e-229</v>
+        <v>1.098509045921227e-229</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>8.267378717102151e-230</v>
+        <v>8.226359581266411e-230</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>4.157426203058771e-230</v>
+        <v>4.225827391815789e-230</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>2.628199337497337e-230</v>
+        <v>2.632078632477083e-230</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>1.531627348404642e-230</v>
+        <v>1.533480267709103e-230</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>8.352720492767632e-231</v>
+        <v>8.342824050144031e-231</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>4.619772122663013e-231</v>
+        <v>4.601189693222465e-231</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>2.352828667510259e-231</v>
+        <v>2.386982392355071e-231</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>1.303418521284774e-231</v>
+        <v>1.292425887213363e-231</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>9.955426589569246e-232</v>
+        <v>9.759190825577947e-232</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>5.952186137944449e-232</v>
+        <v>5.472364087338579e-232</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>4.87087975960931e-232</v>
+        <v>4.839368327478676e-232</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>3.601991603531621e-232</v>
+        <v>3.613240176910308e-232</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>2.237621784024258e-232</v>
+        <v>2.157215035666936e-232</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>1.616860126666299e-232</v>
+        <v>1.601041794455554e-232</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>1.154402096241757e-232</v>
+        <v>1.149118288929877e-232</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>7.724490246205918e-233</v>
+        <v>7.691268472297818e-233</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>5.486702448179602e-233</v>
+        <v>5.474534097681541e-233</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>3.619266977419313e-233</v>
+        <v>3.625417394816481e-233</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>2.246544819306656e-233</v>
+        <v>2.240457842850857e-233</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>1.215347637161353e-233</v>
+        <v>1.219198450719535e-233</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>1.171544772074601e-233</v>
+        <v>1.176451798852612e-233</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>7.019680717312005e-234</v>
+        <v>7.068306524531783e-234</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>5.864235661095538e-234</v>
+        <v>5.879580758978059e-234</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>5.555170870651986e-234</v>
+        <v>5.577270311489743e-234</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>4.965289953300672e-234</v>
+        <v>4.992346728190468e-234</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>3.761384336701167e-234</v>
+        <v>3.770136073084556e-234</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>2.592099979663075e-234</v>
+        <v>2.605894164600184e-234</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>1.955506254011043e-234</v>
+        <v>1.963610926994046e-234</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>1.492381068868165e-234</v>
+        <v>1.498923868614155e-234</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>1.16586525749419e-234</v>
+        <v>1.166735953411318e-234</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>8.78665614436847e-235</v>
+        <v>8.848481903144005e-235</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>6.75090430374571e-235</v>
+        <v>6.781329390493736e-235</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>5.833329894172151e-235</v>
+        <v>5.870042798323621e-235</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>1.833271015619822e-235</v>
+        <v>1.843747980974318e-235</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>4.516309405213763e-236</v>
+        <v>4.65051792752555e-236</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>2.072155937596329e-236</v>
+        <v>2.116981387566285e-236</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>2.869112481156532e-236</v>
+        <v>2.918259014786959e-236</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>1.685259333424423e-236</v>
+        <v>1.73931490649139e-236</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>1.099198750681578e-236</v>
+        <v>1.14173977340195e-236</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>6.306283373657905e-237</v>
+        <v>6.528686452038093e-237</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>4.652962301722456e-237</v>
+        <v>4.25882343648454e-237</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>2.481421293608133e-237</v>
+        <v>2.500702306222438e-237</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>1.589705598933258e-237</v>
+        <v>1.579185230883779e-237</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>6.416085015250176e-238</v>
+        <v>6.479655575784338e-238</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>1.884561297072046e-238</v>
+        <v>1.915972954960738e-238</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>1.142623309274729e-238</v>
+        <v>1.16585184486458e-238</v>
       </c>
     </row>
   </sheetData>
